--- a/ElfenLied2019/evidence.xlsx
+++ b/ElfenLied2019/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="13040"/>
+    <workbookView windowWidth="28000" windowHeight="12940" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="42">
   <si>
     <t>TeamName</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>mumu</t>
     </r>
     <r>
@@ -114,34 +120,61 @@
     <t>ClassID</t>
   </si>
   <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
+    <t>D8E59C37ED6E46F53402708B749B0F2B01523AFDF270759BD06411A6C774E854</t>
+  </si>
+  <si>
+    <t>goniriscollection</t>
   </si>
   <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>nft id you minted</t>
+    <t>DFD31930DAE9A7830E14263090607A6AC7357724843A6DD34BF96FE26DD35E87</t>
+  </si>
+  <si>
+    <t>token001</t>
+  </si>
+  <si>
+    <t>EF2809D9088E1087832C93B0D4DEE3892B9E51C32D665683663BF84829B8D4E1</t>
+  </si>
+  <si>
+    <t>token002</t>
   </si>
   <si>
     <t>ChainID</t>
   </si>
   <si>
-    <t>ibc class on dest chain</t>
+    <t>F26CFED742777C159718A99BBAF0582A41DE7DE9F9BE98D9A788E11AB0FCA808</t>
+  </si>
+  <si>
+    <t>stars1xsphs4ejm3wq4cmpr8r6nypcg57jvxp3l8gqalwzj9du9s962ths00mn0w</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>ACCF49298B06793D53AF225D275C0D7CBB1D18E4C2AA9CA0D171CE25BC60CDD7</t>
+  </si>
+  <si>
+    <t>ibc/7CAE969772A2F8B538AB25D51439E81FBB9097ED25F152DBF67A2076DF9AFDE2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uptick_7000-2 </t>
+  </si>
+  <si>
+    <t>8A7F84AECC82E75066799EAD7008BF4F5E1D8FEAEF8117EB1A4048B55CB0AA7C</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>930A2EF6C718B00B56ACEC636A3AF43AB763BCCEE3FF5494D68E6F79CFC22F76</t>
+  </si>
+  <si>
+    <t>ibc class on chain</t>
   </si>
   <si>
     <t>nft id</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>ibc class on chain</t>
   </si>
   <si>
     <t>tx hash on that chain</t>
@@ -164,12 +197,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,15 +218,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,9 +231,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,10 +246,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,13 +279,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,20 +300,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -297,16 +316,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,6 +331,21 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -327,11 +353,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -362,31 +388,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,114 +556,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -513,30 +563,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,23 +611,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,30 +646,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,151 +675,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1194,7 +1220,7 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1295,10 +1321,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1334,10 +1360,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1373,10 +1399,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1412,10 +1438,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1446,25 +1472,25 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1495,25 +1521,25 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1544,25 +1570,25 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1593,25 +1619,25 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1642,25 +1668,25 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1691,25 +1717,25 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1726,7 +1752,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1778,25 +1804,25 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1827,25 +1853,25 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1877,12 +1903,12 @@
     </row>
     <row r="2" ht="16.5" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1914,12 +1940,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1951,12 +1977,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1988,12 +2014,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2007,13 +2033,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="2"/>
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="2" width="17.8365384615385" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
@@ -2032,13 +2058,24 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2055,7 +2092,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2076,21 +2113,21 @@
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2107,7 +2144,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2128,21 +2165,21 @@
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2159,7 +2196,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2180,12 +2217,12 @@
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>27</v>
@@ -2194,7 +2231,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2210,8 +2247,8 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2233,21 +2270,21 @@
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2283,10 +2320,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2322,10 +2359,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/ElfenLied2019/evidence.xlsx
+++ b/ElfenLied2019/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="12940" activeTab="6"/>
+    <workbookView windowWidth="29820" windowHeight="15240" firstSheet="10" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="102">
   <si>
     <t>TeamName</t>
   </si>
@@ -171,25 +171,205 @@
     <t>930A2EF6C718B00B56ACEC636A3AF43AB763BCCEE3FF5494D68E6F79CFC22F76</t>
   </si>
   <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
+    <t>43DEF82E370F23E498B38CBFC663CAC83281F92CA4438A756D8B21E1C36CCCCF</t>
+  </si>
+  <si>
+    <t>tokena1</t>
+  </si>
+  <si>
+    <t>1A79FA433AC333C98DA8F7B451BBF924C8593930D6ECCCF6D35A5D2ECC6B7A47</t>
+  </si>
+  <si>
+    <t>0DE4E9D640487D7B3BA5012DCB558012EDD26A089E46330A52BBCC51F26B3797</t>
+  </si>
+  <si>
+    <t>1BAD637C796A4C2AD9FBE273FC0E6CFA8F0E4C15D07048172FD6E1CCB4BAC59A</t>
+  </si>
+  <si>
+    <t>tokena2</t>
+  </si>
+  <si>
+    <t>08F1FD8F862DA032621E80199E20BB98E93BA5BFC6DE51D441774E5BA1DDD66C</t>
+  </si>
+  <si>
+    <t>7CE5FAB5F1BE3404F3001FE03866CEF74F176FF2A9DE1945E0F67057EE7A849D</t>
+  </si>
+  <si>
+    <t>9423672684466C28746C580850FC8BA446FEE5535F84E4EBEFEA2575138D0764</t>
+  </si>
+  <si>
+    <t>tokenida3</t>
+  </si>
+  <si>
+    <t>86B26968B1661A339B0C65007269C756434AF37E15927D78463C10E6BBA0BEE8</t>
+  </si>
+  <si>
+    <t>4A09A279BA9BACD1CD9C7861883939F615BAFD2C33B001B34D4CE075B473C047</t>
+  </si>
+  <si>
+    <t>9193CC084A345ED0BDB46E12E900E0960981BFE6E5BF9E841A3767B56C001FB6</t>
+  </si>
+  <si>
+    <t>15CFD13C8FA2D84D6C436480B82D68A9E46120E8928783CFDEF76C6A420670F8</t>
+  </si>
+  <si>
+    <t>flowida4</t>
+  </si>
+  <si>
+    <t>86CD500746CD708A039723F984020BD880479749CD6D1C03404159CD4AEB003E</t>
+  </si>
+  <si>
+    <t>340747BCB275A66E7BEAAB4B1613FCB6EE5AB986A222476D479950CD21B5D707</t>
+  </si>
+  <si>
+    <t>D6D996D660BF0DDEFB53CAA0E919A50750176AB6C8B4832870CDA071085E5B5A</t>
+  </si>
+  <si>
+    <t>3A8478C5DD1E7E0821939C8773862C03444AFD74983B2B392293D300A3E1E77D</t>
+  </si>
+  <si>
+    <t>tokena5</t>
+  </si>
+  <si>
+    <t>449B9962A4EF57CC0BD8CBD20D842EF372E8AFEB86C2E6AB56CF0AB6FB018FC5</t>
+  </si>
+  <si>
+    <t>F043C10DCB1A622448B0A2407EBACE2F9240A79680CDD201F30B161853DCCC49</t>
+  </si>
+  <si>
+    <t>8D24B001AF7616E4A8440840C1A10AD94A3A7D540804262DF10787D9AA57E210</t>
+  </si>
+  <si>
+    <t>234BF2CF8966DFD8E1630893D43DE4CA72C96B5C22E6D83F52CEB08182D6A28B</t>
+  </si>
+  <si>
+    <t>2F377500CF6D9C3D92750562363E5EA9FF6C74360275AAE30FD988FF900C238E</t>
+  </si>
+  <si>
+    <t>1A2B9B137B06FED4CED5CD35D470FA33FCF355DF84D0D2571FA1E510848258C6</t>
+  </si>
+  <si>
+    <t>taska6</t>
+  </si>
+  <si>
+    <t>657CB82E2A4FEA72C543B8A3B54A169F41AA7B156623BFD4B81237DD8E15D75B</t>
+  </si>
+  <si>
+    <t>1D145C66948D6617475BD889B6337391D1C1E36C5170F1BD95B8939A240857DE</t>
+  </si>
+  <si>
+    <t>DC2B1D24278B15CAB1E5AC29B44B543B5AC838AFD221DB62D3C28D2361CD4329</t>
+  </si>
+  <si>
+    <t>taskb1</t>
+  </si>
+  <si>
+    <t>08B317C5B082E9BBD82B1F4F3B5CA39CA98551B1430EBBF9344A386473160245</t>
+  </si>
+  <si>
+    <t>taskb2</t>
+  </si>
+  <si>
+    <t>BDF0FB3CC62AC1C70AED429F694B534B8DBDB1653CD6D25A68C8B8F13A9FD1D7</t>
+  </si>
+  <si>
+    <t>8762DCBF4AA77C0315336103AB3568375706316E979F397A5E23186552FDB722</t>
+  </si>
+  <si>
+    <t>77457CF9FEA165248E66DED20D0DAAAA598BE812B44DA844335CA9906AC09FA8</t>
+  </si>
+  <si>
+    <t>360DABA2337466301836311C27AF7DD57C782ED064B5CA2A68739CD9072CC4C7</t>
+  </si>
+  <si>
+    <t>taskb3</t>
+  </si>
+  <si>
+    <t>73959E62745097E6341C92B15C771B1596029B14E68998C26BFA013C6527348A</t>
+  </si>
+  <si>
+    <t>29ADDB64C61A886679358E237EB36F1BA8D3814B0EB383C140B721F4506E73CC</t>
+  </si>
+  <si>
+    <t>5C97F529ACF5F803DF07944BC48A1B8B978275187D37EB0C97D32A677493B367</t>
+  </si>
+  <si>
+    <t>3FA9AB215DC49F86F64112F5F9D6900DF48FD482A1E519EF7F167F2EF64B275B</t>
+  </si>
+  <si>
+    <t>tokenb4</t>
+  </si>
+  <si>
+    <t>A8C5195FD93196144215463099F59D468D656E01F76828E1A0F1BED0B1458915</t>
+  </si>
+  <si>
+    <t>B184E82DB22AF78F8DC24E98797C3076920525ED3F4E1015C56B56A6423DFE17</t>
+  </si>
+  <si>
+    <t>7FC0E32D77BEFB6DA80556BA508E35B8EA15A6AD6FE6E9CF0E1066A06467A86A</t>
   </si>
   <si>
     <t>tx hash on that chain</t>
   </si>
   <si>
-    <t>chain id</t>
+    <t>taskc1</t>
   </si>
   <si>
     <t>tx hash on that chain	chain id</t>
   </si>
   <si>
+    <t>D05CFDB52F16F27418DDD3AFAECBE0A169F13BFBF759C4D0C21024DE83203E82</t>
+  </si>
+  <si>
+    <t>taskc2</t>
+  </si>
+  <si>
+    <t>18E9085E9118745AD1EDF38DDF55FC8D149F59D1345B7D64A945EBEE4567FFD6</t>
+  </si>
+  <si>
+    <t>427AAE3149D63F07936FD62DBD6EA475472953B634148BD4F7494EB9C7084173</t>
+  </si>
+  <si>
+    <t>F86670205E1450436245D9C85AA196B98FCCF6D60FC7D9D06CC66606C55F5FA9</t>
+  </si>
+  <si>
+    <t>taskc3</t>
+  </si>
+  <si>
+    <t>78F577EFF8BB96D6F5EA33FE344CD4CACC9FCA0889420335B9DDF392EFAB73BE</t>
+  </si>
+  <si>
+    <t>taskc4</t>
+  </si>
+  <si>
+    <t>9FA554C2EB0373AAC48AF90930DD837963E6D965AF1CCB1B15DA997A33D4A781</t>
+  </si>
+  <si>
+    <t>C66D2E2E86A8B11B8E654289D1C6727BC31A53A790ACA12EBD49D7614B110379</t>
+  </si>
+  <si>
+    <t>D678A372B4D1979CD64103C923B5E3B47B351AB2DB4E1B442E70CF3E010D038A</t>
+  </si>
+  <si>
+    <t>0853DE855C714947B50A1ED2E48126FC291F6A4BF93C9BC23F3DB7BD5987F640</t>
+  </si>
+  <si>
+    <t>93103F92A75F11D495EDA818FB9111BB83334F1F6B3292CA86EC2851143E7EC9</t>
+  </si>
+  <si>
+    <t>FE2E3901FAEAADDA51F5CE236F169CD9B116F27EA99C5E83C1594AE93996FB31</t>
+  </si>
+  <si>
+    <t>4CBD08837308C2ED5431C2EA9B517E28DCB1C5F13CA353D33B9C84FB61582CAB</t>
+  </si>
+  <si>
+    <t>81B015C7D3450CA01A0C122AB83471B7DD042B762249824E1CF80AD7D97E529B</t>
+  </si>
+  <si>
+    <t>The Internal Transfer TxHash on IRISnet</t>
+  </si>
+  <si>
     <t>The first Interchain NFT-Transfer TxHash</t>
-  </si>
-  <si>
-    <t>The Internal Transfer TxHash on IRISnet</t>
   </si>
 </sst>
 </file>
@@ -197,12 +377,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,15 +397,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,6 +432,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -255,15 +448,69 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,53 +532,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -339,23 +548,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,19 +581,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,163 +701,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,11 +819,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,6 +845,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,170 +898,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -861,6 +1054,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1221,7 +1422,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -1230,7 +1431,7 @@
     <col min="2" max="2" width="14.8365384615385" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="16.1634615384615" customWidth="1"/>
-    <col min="5" max="5" width="18.1634615384615" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.1634615384615" style="7" customWidth="1"/>
     <col min="6" max="6" width="17.6634615384615" customWidth="1"/>
     <col min="7" max="7" width="14.5" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
@@ -1263,28 +1464,28 @@
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1299,15 +1500,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="93.9038461538462" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1321,10 +1522,34 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1338,15 +1563,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="87.5" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1359,12 +1584,48 @@
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="A2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1377,15 +1638,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="95.5096153846154" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1398,11 +1659,51 @@
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
+      <c r="A2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1416,15 +1717,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="93.1057692307692" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1438,10 +1739,34 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1455,15 +1780,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="89.4134615384615" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1477,20 +1802,34 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
+        <v>62</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>63</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1504,15 +1843,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="91.8173076923077" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1526,20 +1865,34 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
+        <v>68</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1553,15 +1906,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="89.4230769230769" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1575,20 +1928,34 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
+        <v>73</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>74</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1602,15 +1969,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="87.0192307692308" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1624,20 +1991,34 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
+        <v>78</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>79</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1654,13 +2035,13 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="37.9711538461538" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
@@ -1673,20 +2054,20 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1700,15 +2081,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="86.5288461538462" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1722,20 +2103,34 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
+        <v>86</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>87</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1752,7 +2147,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1790,7 +2185,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -1809,20 +2204,20 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1836,15 +2231,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="94.8653846153846" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1858,20 +2253,50 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
+        <v>92</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>93</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1885,15 +2310,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="83.3269230769231" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:1">
@@ -1902,14 +2327,23 @@
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1" spans="1:1">
-      <c r="A2" s="2" t="s">
-        <v>40</v>
+      <c r="A2" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="A3" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" ht="22" spans="1:1">
+      <c r="A9" s="4"/>
+    </row>
+    <row r="10" ht="22" spans="1:1">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" ht="22" spans="1:1">
+      <c r="A11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1924,13 +2358,13 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="79.3269230769231" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:1">
@@ -1940,12 +2374,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1977,12 +2411,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2014,12 +2448,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2033,15 +2467,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="17.8365384615385" customWidth="1"/>
+    <col min="1" max="1" width="83.3365384615385" customWidth="1"/>
+    <col min="2" max="2" width="17.8365384615385" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2077,6 +2512,10 @@
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2092,7 +2531,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2144,7 +2583,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2196,7 +2635,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2247,8 +2686,8 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2298,15 +2737,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="84.7692307692308" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2319,10 +2758,26 @@
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2337,15 +2792,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="85.0961538461538" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2359,10 +2814,26 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/ElfenLied2019/evidence.xlsx
+++ b/ElfenLied2019/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29820" windowHeight="15240" firstSheet="10" activeTab="22"/>
+    <workbookView windowWidth="29820" windowHeight="13000" firstSheet="10" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="103">
   <si>
     <t>TeamName</t>
   </si>
@@ -366,10 +366,13 @@
     <t>81B015C7D3450CA01A0C122AB83471B7DD042B762249824E1CF80AD7D97E529B</t>
   </si>
   <si>
+    <t>0BEBEF09675500DFB3DC5F0CBB1C8A08F28482BC0E31A33BF6F6EEE08233B50A</t>
+  </si>
+  <si>
+    <t>The first Interchain NFT-Transfer TxHash</t>
+  </si>
+  <si>
     <t>The Internal Transfer TxHash on IRISnet</t>
-  </si>
-  <si>
-    <t>The first Interchain NFT-Transfer TxHash</t>
   </si>
 </sst>
 </file>
@@ -377,10 +380,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -411,7 +414,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,53 +422,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,36 +437,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -533,6 +460,67 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -554,6 +542,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体-简"/>
@@ -581,6 +584,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -599,169 +608,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,32 +807,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -849,11 +839,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -873,180 +887,169 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1058,9 +1061,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1431,7 +1431,7 @@
     <col min="2" max="2" width="14.8365384615385" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="16.1634615384615" customWidth="1"/>
-    <col min="5" max="5" width="18.1634615384615" style="7" customWidth="1"/>
+    <col min="5" max="5" width="18.1634615384615" style="6" customWidth="1"/>
     <col min="6" max="6" width="17.6634615384615" customWidth="1"/>
     <col min="7" max="7" width="14.5" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
@@ -1464,28 +1464,28 @@
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1587,7 +1587,7 @@
       <c r="A2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
       <c r="A3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1603,7 +1603,7 @@
       <c r="A4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1611,21 +1611,21 @@
       <c r="A5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="6"/>
+      <c r="B17" s="5"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="6"/>
+      <c r="B18" s="5"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="6"/>
+      <c r="B19" s="5"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="6"/>
+      <c r="B20" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2312,8 +2312,8 @@
   </sheetPr>
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8"/>
@@ -2358,8 +2358,8 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="2"/>
@@ -2416,7 +2416,7 @@
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/ElfenLied2019/evidence.xlsx
+++ b/ElfenLied2019/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29820" windowHeight="13000" firstSheet="10" activeTab="21"/>
+    <workbookView windowWidth="29820" windowHeight="12940" firstSheet="12" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -165,10 +165,10 @@
     <t>8A7F84AECC82E75066799EAD7008BF4F5E1D8FEAEF8117EB1A4048B55CB0AA7C</t>
   </si>
   <si>
-    <t>gon-irishub-1</t>
-  </si>
-  <si>
     <t>930A2EF6C718B00B56ACEC636A3AF43AB763BCCEE3FF5494D68E6F79CFC22F76</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
   </si>
   <si>
     <t>43DEF82E370F23E498B38CBFC663CAC83281F92CA4438A756D8B21E1C36CCCCF</t>
@@ -381,9 +381,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -427,11 +427,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -450,19 +503,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -475,30 +543,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,51 +557,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体-简"/>
@@ -602,31 +602,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,13 +722,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,13 +734,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,96 +765,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,11 +804,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -820,6 +850,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,30 +893,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -871,172 +901,142 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1045,7 +1045,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2312,7 +2312,7 @@
   </sheetPr>
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -2358,8 +2358,8 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="2"/>
@@ -2635,14 +2635,15 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="17.8365384615385" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="51.1153846153846" customWidth="1"/>
+    <col min="2" max="2" width="85.25" customWidth="1"/>
+    <col min="3" max="3" width="28.0384615384615" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:4">
@@ -2670,7 +2671,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2687,13 +2688,13 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17.8365384615385" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="1" max="1" width="44.2307692307692" customWidth="1"/>
+    <col min="2" max="2" width="51.4423076923077" customWidth="1"/>
     <col min="3" max="3" width="16.3365384615385" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
   </cols>
@@ -2714,7 +2715,7 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>30</v>
@@ -2723,7 +2724,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/ElfenLied2019/evidence.xlsx
+++ b/ElfenLied2019/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29820" windowHeight="12940" firstSheet="12" activeTab="22"/>
+    <workbookView windowWidth="29820" windowHeight="15240" tabRatio="986" firstSheet="3" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -32,13 +32,14 @@
     <sheet name="B2" sheetId="23" r:id="rId23"/>
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
+    <sheet name="B7" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="96">
   <si>
     <t>TeamName</t>
   </si>
@@ -171,85 +172,46 @@
     <t>uptick_7000-2</t>
   </si>
   <si>
-    <t>43DEF82E370F23E498B38CBFC663CAC83281F92CA4438A756D8B21E1C36CCCCF</t>
+    <t>ibc/46D213C60EDC84FEDB7057351527D4EED66D6C79FC41DE3293FB0AE5926E9A0D</t>
   </si>
   <si>
     <t>tokena1</t>
   </si>
   <si>
-    <t>1A79FA433AC333C98DA8F7B451BBF924C8593930D6ECCCF6D35A5D2ECC6B7A47</t>
-  </si>
-  <si>
-    <t>0DE4E9D640487D7B3BA5012DCB558012EDD26A089E46330A52BBCC51F26B3797</t>
-  </si>
-  <si>
-    <t>1BAD637C796A4C2AD9FBE273FC0E6CFA8F0E4C15D07048172FD6E1CCB4BAC59A</t>
+    <t>ibc/441CBD9184BA1D27938FAA604D11112ECB585276087C73AF77DEB7539155945B</t>
   </si>
   <si>
     <t>tokena2</t>
   </si>
   <si>
-    <t>08F1FD8F862DA032621E80199E20BB98E93BA5BFC6DE51D441774E5BA1DDD66C</t>
-  </si>
-  <si>
-    <t>7CE5FAB5F1BE3404F3001FE03866CEF74F176FF2A9DE1945E0F67057EE7A849D</t>
-  </si>
-  <si>
-    <t>9423672684466C28746C580850FC8BA446FEE5535F84E4EBEFEA2575138D0764</t>
+    <t>ibc/9B16F9463B607D584873993B429465CFB16B26C8F21C4A22F34CC08D20BC66FC</t>
   </si>
   <si>
     <t>tokenida3</t>
   </si>
   <si>
-    <t>86B26968B1661A339B0C65007269C756434AF37E15927D78463C10E6BBA0BEE8</t>
-  </si>
-  <si>
-    <t>4A09A279BA9BACD1CD9C7861883939F615BAFD2C33B001B34D4CE075B473C047</t>
-  </si>
-  <si>
-    <t>9193CC084A345ED0BDB46E12E900E0960981BFE6E5BF9E841A3767B56C001FB6</t>
-  </si>
-  <si>
-    <t>15CFD13C8FA2D84D6C436480B82D68A9E46120E8928783CFDEF76C6A420670F8</t>
+    <t>ibc/6377B3B14F766FB020DF4018A04345DADF9D4479D3C1D050BEE8D9F4ADABD608</t>
   </si>
   <si>
     <t>flowida4</t>
   </si>
   <si>
-    <t>86CD500746CD708A039723F984020BD880479749CD6D1C03404159CD4AEB003E</t>
-  </si>
-  <si>
-    <t>340747BCB275A66E7BEAAB4B1613FCB6EE5AB986A222476D479950CD21B5D707</t>
-  </si>
-  <si>
-    <t>D6D996D660BF0DDEFB53CAA0E919A50750176AB6C8B4832870CDA071085E5B5A</t>
-  </si>
-  <si>
-    <t>3A8478C5DD1E7E0821939C8773862C03444AFD74983B2B392293D300A3E1E77D</t>
+    <t>ibc/53EA5A49204F35D7ACBA19CDFF4E5EF10F01A4C04D764C0DED1A3362DF970920</t>
   </si>
   <si>
     <t>tokena5</t>
   </si>
   <si>
-    <t>449B9962A4EF57CC0BD8CBD20D842EF372E8AFEB86C2E6AB56CF0AB6FB018FC5</t>
-  </si>
-  <si>
-    <t>F043C10DCB1A622448B0A2407EBACE2F9240A79680CDD201F30B161853DCCC49</t>
-  </si>
-  <si>
-    <t>8D24B001AF7616E4A8440840C1A10AD94A3A7D540804262DF10787D9AA57E210</t>
-  </si>
-  <si>
-    <t>234BF2CF8966DFD8E1630893D43DE4CA72C96B5C22E6D83F52CEB08182D6A28B</t>
-  </si>
-  <si>
-    <t>2F377500CF6D9C3D92750562363E5EA9FF6C74360275AAE30FD988FF900C238E</t>
+    <t>ibc/AE2BB2DB851DCC079EC51E1C5863110D82ABD3E5C5611A8024BB4A06FED42137</t>
+  </si>
+  <si>
+    <t>taska6</t>
   </si>
   <si>
     <t>1A2B9B137B06FED4CED5CD35D470FA33FCF355DF84D0D2571FA1E510848258C6</t>
   </si>
   <si>
-    <t>taska6</t>
+    <t>gon-irishub-1</t>
   </si>
   <si>
     <t>657CB82E2A4FEA72C543B8A3B54A169F41AA7B156623BFD4B81237DD8E15D75B</t>
@@ -261,33 +223,30 @@
     <t>DC2B1D24278B15CAB1E5AC29B44B543B5AC838AFD221DB62D3C28D2361CD4329</t>
   </si>
   <si>
-    <t>taskb1</t>
-  </si>
-  <si>
     <t>08B317C5B082E9BBD82B1F4F3B5CA39CA98551B1430EBBF9344A386473160245</t>
   </si>
   <si>
-    <t>taskb2</t>
-  </si>
-  <si>
     <t>BDF0FB3CC62AC1C70AED429F694B534B8DBDB1653CD6D25A68C8B8F13A9FD1D7</t>
   </si>
   <si>
     <t>8762DCBF4AA77C0315336103AB3568375706316E979F397A5E23186552FDB722</t>
   </si>
   <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
     <t>77457CF9FEA165248E66DED20D0DAAAA598BE812B44DA844335CA9906AC09FA8</t>
   </si>
   <si>
     <t>360DABA2337466301836311C27AF7DD57C782ED064B5CA2A68739CD9072CC4C7</t>
   </si>
   <si>
-    <t>taskb3</t>
-  </si>
-  <si>
     <t>73959E62745097E6341C92B15C771B1596029B14E68998C26BFA013C6527348A</t>
   </si>
   <si>
+    <t>uni-6</t>
+  </si>
+  <si>
     <t>29ADDB64C61A886679358E237EB36F1BA8D3814B0EB383C140B721F4506E73CC</t>
   </si>
   <si>
@@ -297,9 +256,6 @@
     <t>3FA9AB215DC49F86F64112F5F9D6900DF48FD482A1E519EF7F167F2EF64B275B</t>
   </si>
   <si>
-    <t>tokenb4</t>
-  </si>
-  <si>
     <t>A8C5195FD93196144215463099F59D468D656E01F76828E1A0F1BED0B1458915</t>
   </si>
   <si>
@@ -309,21 +265,21 @@
     <t>7FC0E32D77BEFB6DA80556BA508E35B8EA15A6AD6FE6E9CF0E1066A06467A86A</t>
   </si>
   <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>taskc1</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
+    <t>524D1AC9B5D1A646F21D43607037D003D577BC148EBB78D12E824565C756DF49</t>
+  </si>
+  <si>
+    <t>DC58EEDCC0F08EBF5BA680ECB8EA981F9BB792EDA6C37FCA18081BB0E4DEDB91</t>
+  </si>
+  <si>
+    <t>C2141544419E783F571A45819ADF5A04B8A1167D5B76A08B9E2836F6BC759366</t>
+  </si>
+  <si>
+    <t>77B1599816F1A7C6EAFC75EC3640EBD0F6F509CEA5326E5F4CFAFB115308DEA1</t>
   </si>
   <si>
     <t>D05CFDB52F16F27418DDD3AFAECBE0A169F13BFBF759C4D0C21024DE83203E82</t>
   </si>
   <si>
-    <t>taskc2</t>
-  </si>
-  <si>
     <t>18E9085E9118745AD1EDF38DDF55FC8D149F59D1345B7D64A945EBEE4567FFD6</t>
   </si>
   <si>
@@ -333,15 +289,27 @@
     <t>F86670205E1450436245D9C85AA196B98FCCF6D60FC7D9D06CC66606C55F5FA9</t>
   </si>
   <si>
-    <t>taskc3</t>
+    <t>4FF58BD28B80EE498C3FA2714D6237D20FE7FD953AAD7C048D205EE338E53CC0</t>
+  </si>
+  <si>
+    <t>F27537729F009141A487B04045B3D719F6359590234A8DFA0A479BCF7F0C0AF4</t>
+  </si>
+  <si>
+    <t>72CE9FCD54A9696A460EF7A69B944F6F4EBFB3EFF231E8D2E1B3426A1529627A</t>
+  </si>
+  <si>
+    <t>0506E788B70F375F7AFF43AC3A69FAB6BB2A76C588902E988214479DB1570207</t>
+  </si>
+  <si>
+    <t>0B8FA25F5C9A007E81B82F7B147DFC8857349F34E03B803E824110D9BE06A64E</t>
+  </si>
+  <si>
+    <t>AC3B48034C4822192A9719B6E0D4C8FB5F6DCB30BFEA8366BE163EA3DD04B79B</t>
   </si>
   <si>
     <t>78F577EFF8BB96D6F5EA33FE344CD4CACC9FCA0889420335B9DDF392EFAB73BE</t>
   </si>
   <si>
-    <t>taskc4</t>
-  </si>
-  <si>
     <t>9FA554C2EB0373AAC48AF90930DD837963E6D965AF1CCB1B15DA997A33D4A781</t>
   </si>
   <si>
@@ -369,10 +337,22 @@
     <t>0BEBEF09675500DFB3DC5F0CBB1C8A08F28482BC0E31A33BF6F6EEE08233B50A</t>
   </si>
   <si>
-    <t>The first Interchain NFT-Transfer TxHash</t>
-  </si>
-  <si>
-    <t>The Internal Transfer TxHash on IRISnet</t>
+    <t>C4ED82167ECE1381AD0A15F43E23378E3849C6DDAB79167020BBAB597D76FEF2</t>
+  </si>
+  <si>
+    <t>A4ECA8F36EBFC0707B9F07F8B40AC61B46F06C5711AA8055091DA477412D7ED1</t>
+  </si>
+  <si>
+    <t>0EC6FDA9926A557837E9988ED72D39DE7AF841A18230504D54260D2B9DE8E63A</t>
+  </si>
+  <si>
+    <t>2A251EB32656621F38173AACD4F665EB40AD51AC536AA15EFA0A41DFB214205A</t>
+  </si>
+  <si>
+    <t>B0E88AE1321E639D0B7D69C507B1572CC8D34EF9F41393FDFD1112946F797933</t>
+  </si>
+  <si>
+    <t>B884971514724AA2761D9D874E9CCE41E4D09E85008300EA3ABB94C8F1FDB6DB</t>
   </si>
 </sst>
 </file>
@@ -382,10 +362,10 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,7 +380,31 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF24292F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8.25"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -414,60 +418,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,29 +433,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -528,7 +457,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,8 +471,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,6 +540,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体-简"/>
       <charset val="134"/>
@@ -584,31 +588,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,151 +762,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,6 +808,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -822,8 +835,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -843,26 +882,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -878,178 +897,163 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1057,11 +1061,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1431,9 +1449,9 @@
     <col min="2" max="2" width="14.8365384615385" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="16.1634615384615" customWidth="1"/>
-    <col min="5" max="5" width="18.1634615384615" style="6" customWidth="1"/>
+    <col min="5" max="5" width="18.1634615384615" style="12" customWidth="1"/>
     <col min="6" max="6" width="17.6634615384615" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="78.5192307692308" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1464,28 +1482,28 @@
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="14" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1503,7 +1521,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A3" sqref="$A3:$XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -1521,36 +1539,24 @@
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>43</v>
+      <c r="A2" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1566,7 +1572,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A3" sqref="$A3:$XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelCol="1"/>
@@ -1584,48 +1590,36 @@
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>49</v>
+      <c r="A2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="5"/>
+      <c r="B17" s="11"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="5"/>
+      <c r="B18" s="11"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="5"/>
+      <c r="B19" s="11"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="5"/>
+      <c r="B20" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1641,7 +1635,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A3" sqref="$A3:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -1659,52 +1653,32 @@
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>54</v>
+      <c r="A2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1717,13 +1691,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="93.1057692307692" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
@@ -1738,36 +1712,30 @@
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>60</v>
+      <c r="A2" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="10" ht="17.6" spans="1:1">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1783,13 +1751,13 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="89.4134615384615" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="21.7980769230769" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
@@ -1802,34 +1770,34 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>50</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" ht="17" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1845,8 +1813,8 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -1865,34 +1833,34 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1909,7 +1877,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -1928,34 +1896,34 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>60</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" ht="17" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1972,7 +1940,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -1991,34 +1959,34 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>62</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>64</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" ht="17" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2032,16 +2000,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="37.9711538461538" customWidth="1"/>
+    <col min="1" max="1" width="102.240384615385" customWidth="1"/>
+    <col min="2" max="2" width="73.0673076923077" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
@@ -2054,21 +2022,41 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
+        <v>66</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
+        <v>67</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>83</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" ht="17" spans="1:2">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" ht="17.6" spans="1:1">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2084,7 +2072,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -2103,34 +2091,34 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>72</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" ht="17" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2147,7 +2135,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -2182,16 +2170,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A9" sqref="A9:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="87.8173076923077" customWidth="1"/>
+    <col min="2" max="2" width="27.7211538461538" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
@@ -2204,21 +2192,57 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
+        <v>74</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
+        <v>75</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>83</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" ht="17" spans="1:2">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" ht="17" spans="1:2">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" ht="17" spans="1:2">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" ht="17.6" spans="1:1">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2234,13 +2258,13 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="94.8653846153846" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="19.8653846153846" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
@@ -2253,50 +2277,50 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>82</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" ht="17" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>83</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" ht="17" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>84</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" ht="34" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2327,23 +2351,23 @@
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1" spans="1:1">
-      <c r="A2" s="3" t="s">
-        <v>97</v>
+      <c r="A2" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>98</v>
+      <c r="A3" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9" ht="22" spans="1:1">
-      <c r="A9" s="4"/>
+      <c r="A9" s="6"/>
     </row>
     <row r="10" ht="22" spans="1:1">
-      <c r="A10" s="4"/>
+      <c r="A10" s="6"/>
     </row>
     <row r="11" ht="22" spans="1:1">
-      <c r="A11" s="4"/>
+      <c r="A11" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2358,7 +2382,7 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -2374,12 +2398,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2393,15 +2417,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="87.8173076923077" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:1">
@@ -2411,13 +2435,19 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>102</v>
-      </c>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" ht="17.6" spans="1:1">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2430,15 +2460,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="71.7884615384615" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:1">
@@ -2448,13 +2478,65 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>102</v>
-      </c>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" ht="17.6" spans="1:1">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="1" max="1" width="91.6634615384615" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" ht="17.6" spans="1:1">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" ht="17.6" spans="1:1">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2741,12 +2823,12 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A4" sqref="$A3:$XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="84.7692307692308" customWidth="1"/>
+    <col min="1" max="1" width="139.25" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2759,28 +2841,20 @@
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>36</v>
-      </c>
+    <row r="3" ht="19" customHeight="1" spans="1:2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2796,7 +2870,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="$A3:$XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -2814,28 +2888,20 @@
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>39</v>
+      <c r="A2" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
